--- a/Daily_Report_PDF_Files_Marketplace_Builder_Hackathon_2025/Day5_Testing_Report_Sample.xlsx
+++ b/Daily_Report_PDF_Files_Marketplace_Builder_Hackathon_2025/Day5_Testing_Report_Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Q2-UIUX-Hackathon02\Marketplace_Builder_Hackathon_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Q2-UIUX-Hackathon02\Daily_Report_PDF_Files_Marketplace_Builder_Hackathon_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -131,15 +131,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>Cart did not updated</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Not Working</t>
-  </si>
-  <si>
     <t>Fully Responsive layout working as intended</t>
   </si>
   <si>
@@ -159,13 +150,22 @@
   </si>
   <si>
     <t>Working Correctly on every Browsers</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Working Properly with features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart updated Qty and rest </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,15 +188,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,12 +208,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -307,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -325,9 +312,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="71.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -715,32 +699,32 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>36</v>
+      <c r="I4" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
@@ -774,19 +758,19 @@
     </row>
     <row r="6" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -798,7 +782,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
